--- a/dcims-service/src/main/resources/excel/批量导入获奖团队/teamImportTemplate.xlsx
+++ b/dcims-service/src/main/resources/excel/批量导入获奖团队/teamImportTemplate.xlsx
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <name val="等线"/>
@@ -101,12 +101,19 @@
       <sz val="9.0"/>
       <scheme val="minor"/>
       <strike val="false"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="9.0"/>
+      <b val="true"/>
+      <scheme val="minor"/>
+      <strike val="false"/>
       <color rgb="000000"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="9.0"/>
-      <b val="true"/>
       <scheme val="minor"/>
       <strike val="false"/>
       <color rgb="000000"/>
@@ -139,21 +146,21 @@
       <alignment textRotation="0" horizontal="center" vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
+      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment textRotation="0" vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -179,13 +186,9 @@
     <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
     <col min="10" max="10" width="10.833333333333334" customWidth="true"/>
     <col min="11" max="11" width="10.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="10.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="10.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="10.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="12" max="12" width="16.666666666666668" customWidth="true"/>
+    <col min="13" max="13" width="24.333333333333332" customWidth="true"/>
+    <col min="14" max="18" width="10.833333333333334" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -202,9 +205,10 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -218,6 +222,8 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -1463,6 +1469,7 @@
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:M2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="between" sqref="H4:I200" allowBlank="true" errorStyle="warning" promptTitle="" prompt="输入一个日期 : 日期介于2020-01-01 ~ 2030-12-31之间" showInputMessage="true" errorTitle="" error="日期介于2020-01-01 ~ 2030-12-31之间" showErrorMessage="true">
